--- a/mosip_master/xlsx/registration_center_h.xlsx
+++ b/mosip_master/xlsx/registration_center_h.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="195">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -151,6 +151,21 @@
     <t xml:space="preserve">fra</t>
   </si>
   <si>
+    <t xml:space="preserve">ara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مركز افتراضي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العنوان الظاهري 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العنوان الظاهري 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(GTM + 01: 00) توقيت وسط أوروبا</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center A Ben Mansour</t>
   </si>
   <si>
@@ -184,6 +199,15 @@
     <t xml:space="preserve">GTM + 01h00) HEURE EUROPEENNE CENTRALE</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز أ بن منصور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بن منصور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فلان الفلاني</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rural Municipal Mnasra</t>
   </si>
   <si>
@@ -199,6 +223,18 @@
     <t xml:space="preserve">Commune Rurale Mnasra</t>
   </si>
   <si>
+    <t xml:space="preserve">بلدية ريف المناصرة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طريق دي مولاي بوسلهام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوار صبيح مناصرة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جون سميث</t>
+  </si>
+  <si>
     <t xml:space="preserve">Souk Khemiss Mograne</t>
   </si>
   <si>
@@ -217,6 +253,18 @@
     <t xml:space="preserve">la route N1</t>
   </si>
   <si>
+    <t xml:space="preserve">سوق خميس مقران</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الطريق N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صداع نصفي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماريو سبيد واجن</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Assam</t>
   </si>
   <si>
@@ -238,6 +286,18 @@
     <t xml:space="preserve">Kénitra</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز اسام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكيلو 7 طريق طنجة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القنيطرة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بيج تيرنر</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Mehdia</t>
   </si>
   <si>
@@ -256,6 +316,18 @@
     <t xml:space="preserve">route de mehdia Amria mehdia</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز المهدية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طريق المهدية العامرية مهدية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المغرب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">والتر ميلون</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Ouled Oujih</t>
   </si>
   <si>
@@ -271,6 +343,15 @@
     <t xml:space="preserve">center Ouled Oujih</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز ولاد وجيه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكتلة 1 G1 N113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بارب أكيو</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Sidi Taibi</t>
   </si>
   <si>
@@ -292,6 +373,18 @@
     <t xml:space="preserve">Route de Rabat</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز سيدي طيبي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طريق الرباط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سيدي طيبي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مونتي كارلو</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Sidi Allal Tazi</t>
   </si>
   <si>
@@ -313,6 +406,18 @@
     <t xml:space="preserve">route nationale</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز سيدي علال التازي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الطريق الوطني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علاء التازي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كليف هانجر</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Agdal</t>
   </si>
   <si>
@@ -334,6 +439,18 @@
     <t xml:space="preserve">avenue de France</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز أكدال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الجادة الفرنسية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرباط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روبن بانكس</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Hassan</t>
   </si>
   <si>
@@ -352,6 +469,15 @@
     <t xml:space="preserve">avenue de Amir Moulay Abdellah</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز حسن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شارع امير مولاي عبد الله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماكس ايموم</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Souissi</t>
   </si>
   <si>
@@ -370,6 +496,15 @@
     <t xml:space="preserve">avenue de Mohammed VI</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز السويسي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شارع محمد السادس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ميني مام</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Madinat Al Irfane</t>
   </si>
   <si>
@@ -385,6 +520,15 @@
     <t xml:space="preserve">avenue de Allal Al Fassi</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز مدينة العرفان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شارع علال الفاسي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بيل يردز</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Hay Riad</t>
   </si>
   <si>
@@ -400,6 +544,15 @@
     <t xml:space="preserve">avenue de Al Araar</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز حي الرياض</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شارع العرار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قشرة رأس</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Medina</t>
   </si>
   <si>
@@ -415,6 +568,15 @@
     <t xml:space="preserve">Rue des Consuls</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز المدينة المنورة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شارع القناصل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريك شو</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Youssoufia</t>
   </si>
   <si>
@@ -430,7 +592,19 @@
     <t xml:space="preserve">avenue de Ouzguita</t>
   </si>
   <si>
+    <t xml:space="preserve">مركز اليوسفية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شارع أوزغويتا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ميك دونالدز</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Rabat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مركز الرباط</t>
   </si>
 </sst>
 </file>
@@ -521,33 +695,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -567,37 +745,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="40.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="9.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="22.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="40.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="9.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="10.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="25" style="1" width="11.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,7 +857,7 @@
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -739,7 +918,7 @@
       <c r="V2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X2" s="5" t="s">
@@ -750,7 +929,7 @@
       <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -811,81 +990,79 @@
       <c r="V3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>10001</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>45</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>34.52117</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>-6.453275</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>14022</v>
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>779517433</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X4" s="5" t="s">
@@ -894,25 +1071,25 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>34.52117</v>
@@ -924,25 +1101,25 @@
         <v>14022</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>993556086</v>
+        <v>779517433</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>36</v>
@@ -951,15 +1128,15 @@
         <v>37</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="W5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X5" s="5" t="s">
@@ -968,55 +1145,55 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>10002</v>
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>10001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>34.360207</v>
+        <v>34.52117</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-6.550075</v>
+        <v>-6.453275</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14053</v>
+        <v>14022</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>753476995</v>
+        <v>993556086</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>36</v>
@@ -1025,89 +1202,89 @@
         <v>37</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>10002</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>34.360207</v>
+        <v>34.52117</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>-6.550075</v>
+        <v>-6.453275</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14053</v>
+        <v>14022</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>984996886</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>57</v>
+        <v>779517433</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X7" s="5" t="s">
@@ -1118,53 +1295,53 @@
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>10003</v>
+      <c r="B8" s="2" t="n">
+        <v>10002</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>34.405692</v>
+        <v>34.360207</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>-6.433368</v>
+        <v>-6.550075</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>14023</v>
+        <v>14053</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>734239083</v>
+        <v>753476995</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>36</v>
@@ -1179,9 +1356,9 @@
         <v>39</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="W8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X8" s="5" t="s">
@@ -1192,53 +1369,53 @@
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>10003</v>
+      <c r="B9" s="2" t="n">
+        <v>10002</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>34.405692</v>
+        <v>34.360207</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>-6.433368</v>
+        <v>-6.550075</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>14023</v>
+        <v>14053</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>675470523</v>
+        <v>984996886</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>36</v>
@@ -1247,146 +1424,143 @@
         <v>37</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="W9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X9" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>10004</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>67</v>
+      <c r="E10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>34.287879</v>
+        <v>34.360207</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>-6.516428</v>
+        <v>-6.550075</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14000</v>
+        <v>14053</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>937997757</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>68</v>
+        <v>753476995</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>10004</v>
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>10003</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.287879</v>
+        <v>34.405692</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.516428</v>
+        <v>-6.433368</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14000</v>
+        <v>14023</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>852492117</v>
+        <v>734239083</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>36</v>
@@ -1395,15 +1569,15 @@
         <v>37</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="W11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X11" s="5" t="s">
@@ -1412,55 +1586,55 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>10005</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>10003</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>34.256414</v>
+        <v>34.405692</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-6.675499</v>
+        <v>-6.433368</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>14110</v>
+        <v>14023</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>887311749</v>
+        <v>675470523</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>74</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>36</v>
@@ -1469,7 +1643,7 @@
         <v>37</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>39</v>
@@ -1477,73 +1651,73 @@
       <c r="V12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X12" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>10005</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>76</v>
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>71</v>
+      <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>34.256414</v>
+        <v>34.405692</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>-6.675499</v>
+        <v>-6.433368</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>14110</v>
+        <v>14023</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>658302699</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>74</v>
+        <v>734239083</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>39</v>
@@ -1551,64 +1725,61 @@
       <c r="V13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>41</v>
+      <c r="W13" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>10006</v>
+      <c r="B14" s="2" t="n">
+        <v>10004</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>34.262477</v>
+        <v>34.287879</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>-6.618605</v>
+        <v>-6.516428</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14080</v>
+        <v>14000</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>915790305</v>
+        <v>937997757</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>36</v>
@@ -1623,9 +1794,9 @@
         <v>39</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X14" s="5" t="s">
@@ -1636,53 +1807,53 @@
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>10006</v>
+      <c r="B15" s="2" t="n">
+        <v>10004</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>34.262477</v>
+        <v>34.287879</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>-6.618605</v>
+        <v>-6.516428</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14080</v>
+        <v>14000</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>888439793</v>
+        <v>852492117</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R15" s="5" t="s">
         <v>36</v>
@@ -1691,146 +1862,143 @@
         <v>37</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="U15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>10007</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>85</v>
+      <c r="E16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>34.192861</v>
+        <v>34.287879</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>-6.683662</v>
+        <v>-6.516428</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>14025</v>
+        <v>14000</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>811552880</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>86</v>
+        <v>937997757</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>39</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>10007</v>
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>10005</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>34.192861</v>
+        <v>34.256414</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-6.683662</v>
+        <v>-6.675499</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>14025</v>
+        <v>14110</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>753640112</v>
+        <v>887311749</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>36</v>
@@ -1839,15 +2007,15 @@
         <v>37</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>39</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="W17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W17" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X17" s="5" t="s">
@@ -1856,55 +2024,55 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>10008</v>
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>10005</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>34.522414</v>
+        <v>34.256414</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-6.320471</v>
+        <v>-6.675499</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14050</v>
+        <v>14110</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>695325692</v>
+        <v>658302699</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>36</v>
@@ -1913,146 +2081,143 @@
         <v>37</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>39</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="W18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>10008</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>95</v>
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>52</v>
+      <c r="E19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>34.522414</v>
+        <v>34.256414</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>-6.320471</v>
+        <v>-6.675499</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14050</v>
+        <v>14110</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>862899075</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>93</v>
+        <v>887311749</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>41</v>
+        <v>95</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>10009</v>
+      <c r="B20" s="2" t="n">
+        <v>10006</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>33.998232</v>
+        <v>34.262477</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>-6.845728</v>
+        <v>-6.618605</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>10106</v>
+        <v>14080</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>745360421</v>
+        <v>915790305</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>36</v>
@@ -2064,12 +2229,12 @@
         <v>38</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="W20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X20" s="5" t="s">
@@ -2080,11 +2245,11 @@
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>10009</v>
+      <c r="B21" s="2" t="n">
+        <v>10006</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>27</v>
@@ -2093,40 +2258,40 @@
         <v>103</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>33.998232</v>
+        <v>34.262477</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>-6.845728</v>
+        <v>-6.618605</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>10106</v>
+        <v>14080</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>676186831</v>
+        <v>888439793</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>36</v>
@@ -2135,146 +2300,143 @@
         <v>37</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="W21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>10010</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>104</v>
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>10006</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>34.262477</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>-6.618605</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>14080</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>915790305</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>34.017502</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <v>-6.834745</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>766074745</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>41</v>
+      <c r="W22" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>10010</v>
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>10007</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>34.017502</v>
+        <v>34.192861</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.834745</v>
+        <v>-6.683662</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>10000</v>
+        <v>14025</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>773606891</v>
+        <v>811552880</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O23" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>36</v>
@@ -2283,15 +2445,15 @@
         <v>37</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="W23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X23" s="5" t="s">
@@ -2300,55 +2462,55 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>10011</v>
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>10007</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.986608</v>
+        <v>34.192861</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-6.828873</v>
+        <v>-6.683662</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>10105</v>
+        <v>14025</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>787248921</v>
+        <v>753640112</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O24" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R24" s="5" t="s">
         <v>36</v>
@@ -2357,146 +2519,143 @@
         <v>37</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X24" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>10011</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>114</v>
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>99</v>
+      <c r="E25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>33.986608</v>
+        <v>34.192861</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>-6.828873</v>
+        <v>-6.683662</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>10105</v>
+        <v>14025</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>878691008</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>112</v>
+        <v>811552880</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="U25" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X25" s="5" t="s">
-        <v>41</v>
+        <v>114</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>10012</v>
+      <c r="B26" s="2" t="n">
+        <v>10008</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>33.978103</v>
+        <v>34.522414</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>-6.867849</v>
+        <v>-6.320471</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>10112</v>
+        <v>14050</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>838412388</v>
+        <v>695325692</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>36</v>
@@ -2508,12 +2667,12 @@
         <v>38</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="W26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X26" s="5" t="s">
@@ -2524,53 +2683,53 @@
       <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>10012</v>
+      <c r="B27" s="2" t="n">
+        <v>10008</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>33.978103</v>
+        <v>34.522414</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>-6.867849</v>
+        <v>-6.320471</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10112</v>
+        <v>14050</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>719952201</v>
+        <v>862899075</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>36</v>
@@ -2579,146 +2738,143 @@
         <v>37</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="W27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X27" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>10013</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>121</v>
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>10008</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>99</v>
+      <c r="E28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>33.953931</v>
+        <v>34.522414</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>-6.874735</v>
+        <v>-6.320471</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>10104</v>
+        <v>14050</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>751913644</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>123</v>
+        <v>695325692</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="U28" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>41</v>
+        <v>125</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>10013</v>
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>10009</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>33.953931</v>
+        <v>33.998232</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.874735</v>
+        <v>-6.845728</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>10104</v>
+        <v>10106</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>956537434</v>
+        <v>745360421</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>36</v>
@@ -2727,15 +2883,15 @@
         <v>37</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="W29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X29" s="5" t="s">
@@ -2744,55 +2900,55 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>10014</v>
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>10009</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>34.027757</v>
+        <v>33.998232</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-6.834147</v>
+        <v>-6.845728</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>10036</v>
+        <v>10106</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>965639376</v>
+        <v>676186831</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>36</v>
@@ -2801,146 +2957,143 @@
         <v>37</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="W30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X30" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>10014</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>129</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>99</v>
+      <c r="E31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>34.027757</v>
+        <v>33.998232</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>-6.834147</v>
+        <v>-6.845728</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>10036</v>
+        <v>10106</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>781039430</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>128</v>
+        <v>745360421</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="U31" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X31" s="5" t="s">
-        <v>41</v>
+        <v>136</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>10015</v>
+      <c r="B32" s="2" t="n">
+        <v>10010</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>33.995612</v>
+        <v>34.017502</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>-6.815281</v>
+        <v>-6.834745</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>10190</v>
+        <v>10000</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>803062069</v>
+        <v>766074745</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>36</v>
@@ -2952,12 +3105,12 @@
         <v>38</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X32" s="5" t="s">
@@ -2968,53 +3121,53 @@
       <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>10015</v>
+      <c r="B33" s="2" t="n">
+        <v>10010</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="G33" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>33.995612</v>
+        <v>34.017502</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>-6.815281</v>
+        <v>-6.834745</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>10190</v>
+        <v>10000</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>731435978</v>
+        <v>773606891</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>2</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>36</v>
@@ -3023,146 +3176,143 @@
         <v>37</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X33" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>33333</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>136</v>
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>45</v>
+      <c r="E34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>33.52117</v>
+        <v>34.017502</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>-5.453275</v>
+        <v>-6.834745</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>14022</v>
+        <v>10000</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>779517433</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>46</v>
+        <v>766074745</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="U34" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X34" s="5" t="s">
-        <v>41</v>
+        <v>146</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>33333</v>
+        <v>24</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>10011</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>33.52117</v>
+        <v>33.986608</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-5.453275</v>
+        <v>-6.828873</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>14022</v>
+        <v>10105</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>993556086</v>
+        <v>787248921</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>36</v>
@@ -3171,25 +3321,1265 @@
         <v>37</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="W35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W35" s="2" t="s">
         <v>40</v>
       </c>
       <c r="X35" s="5" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>33.986608</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>-6.828873</v>
+      </c>
+      <c r="J36" s="6" t="n">
+        <v>10105</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>878691008</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M36" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>33.986608</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>-6.828873</v>
+      </c>
+      <c r="J37" s="6" t="n">
+        <v>10105</v>
+      </c>
+      <c r="K37" s="5" t="n">
+        <v>787248921</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M37" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>10012</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>33.978103</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>-6.867849</v>
+      </c>
+      <c r="J38" s="6" t="n">
+        <v>10112</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>838412388</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M38" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>10012</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>33.978103</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>-6.867849</v>
+      </c>
+      <c r="J39" s="6" t="n">
+        <v>10112</v>
+      </c>
+      <c r="K39" s="5" t="n">
+        <v>719952201</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M39" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>10012</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>33.978103</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>-6.867849</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>10112</v>
+      </c>
+      <c r="K40" s="5" t="n">
+        <v>838412388</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M40" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>10013</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>33.953931</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>-6.874735</v>
+      </c>
+      <c r="J41" s="6" t="n">
+        <v>10104</v>
+      </c>
+      <c r="K41" s="5" t="n">
+        <v>751913644</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M41" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>10013</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>33.953931</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>-6.874735</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <v>10104</v>
+      </c>
+      <c r="K42" s="5" t="n">
+        <v>956537434</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M42" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>10013</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>33.953931</v>
+      </c>
+      <c r="I43" s="5" t="n">
+        <v>-6.874735</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>10104</v>
+      </c>
+      <c r="K43" s="5" t="n">
+        <v>751913644</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M43" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>10014</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>34.027757</v>
+      </c>
+      <c r="I44" s="5" t="n">
+        <v>-6.834147</v>
+      </c>
+      <c r="J44" s="6" t="n">
+        <v>10036</v>
+      </c>
+      <c r="K44" s="5" t="n">
+        <v>965639376</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M44" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>10014</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>34.027757</v>
+      </c>
+      <c r="I45" s="5" t="n">
+        <v>-6.834147</v>
+      </c>
+      <c r="J45" s="6" t="n">
+        <v>10036</v>
+      </c>
+      <c r="K45" s="5" t="n">
+        <v>781039430</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>10014</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>34.027757</v>
+      </c>
+      <c r="I46" s="5" t="n">
+        <v>-6.834147</v>
+      </c>
+      <c r="J46" s="6" t="n">
+        <v>10036</v>
+      </c>
+      <c r="K46" s="5" t="n">
+        <v>965639376</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M46" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>33.995612</v>
+      </c>
+      <c r="I47" s="5" t="n">
+        <v>-6.815281</v>
+      </c>
+      <c r="J47" s="6" t="n">
+        <v>10190</v>
+      </c>
+      <c r="K47" s="5" t="n">
+        <v>803062069</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M47" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>33.995612</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>-6.815281</v>
+      </c>
+      <c r="J48" s="6" t="n">
+        <v>10190</v>
+      </c>
+      <c r="K48" s="5" t="n">
+        <v>731435978</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M48" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>33.995612</v>
+      </c>
+      <c r="I49" s="5" t="n">
+        <v>-6.815281</v>
+      </c>
+      <c r="J49" s="6" t="n">
+        <v>10190</v>
+      </c>
+      <c r="K49" s="5" t="n">
+        <v>803062069</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M49" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>33333</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>33.52117</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>-5.453275</v>
+      </c>
+      <c r="J50" s="6" t="n">
+        <v>14022</v>
+      </c>
+      <c r="K50" s="5" t="n">
+        <v>779517433</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M50" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>33333</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>33.52117</v>
+      </c>
+      <c r="I51" s="5" t="n">
+        <v>-5.453275</v>
+      </c>
+      <c r="J51" s="6" t="n">
+        <v>14022</v>
+      </c>
+      <c r="K51" s="5" t="n">
+        <v>993556086</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M51" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>33333</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <v>33.52117</v>
+      </c>
+      <c r="I52" s="5" t="n">
+        <v>-5.453275</v>
+      </c>
+      <c r="J52" s="6" t="n">
+        <v>14022</v>
+      </c>
+      <c r="K52" s="5" t="n">
+        <v>779517433</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M52" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
